--- a/registros_excel/2024-01-30.xlsx
+++ b/registros_excel/2024-01-30.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,6 +773,191 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2223456</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Prueba numero 45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Gerencial</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:11:31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>08:16:26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>09:11:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>29012024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prueba numero 433</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Gerencial</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>09:11:32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>08:16:25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>09:11:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1010101010</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Julian</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Gerencial</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>09:11:33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>09:11:33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>09:11:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Adm</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>09:11:33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>08:16:22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>09:11:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>101546</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Leo</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>09:11:35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>08:16:22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>09:11:35</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
